--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4354674.525688129</v>
+        <v>4352794.3459178</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>178.9307563921198</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,7 +707,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>330.6679898432812</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.36390763391859</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690526</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>367.1215549865456</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>115.897387478257</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>137.6226750441172</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.2668293011223</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319829</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>164.5779393906813</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544548</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013941</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121041</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>4.765426656859546</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>73.38052139181507</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>186.8801586578918</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
@@ -2068,7 +2068,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.41761368552095</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.41761368552095</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
         <v>275.1967010728659</v>
@@ -2299,13 +2299,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>39.43225759193496</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>39.14661165392161</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S25" t="n">
-        <v>49.75377031702882</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2539,7 +2539,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
         <v>207.5440020263834</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>90.77008984540237</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.41761368552069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>70.41761368552092</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3013,10 +3013,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>70.41761368552048</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2873163082934</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>715.3418155590899</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,7 +4325,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4437,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.0470106353782</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="E5" t="n">
         <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="X5" t="n">
-        <v>1192.6468506995</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192.6468506995</v>
+        <v>1563.476704221263</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>350.7041574627002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>350.7041574627002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>350.7041574627002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340179</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936061</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685564</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2530.908748199353</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1924.37830756733</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1550.91254930625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,43 +5030,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,13 +5221,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
         <v>869.3083006011507</v>
@@ -5239,10 +5239,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,58 +5267,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011508</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>171.3388302398975</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
         <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969363</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5701,22 +5701,22 @@
         <v>1397.590392029363</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449756</v>
+        <v>1119.613926299196</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953629</v>
+        <v>876.0816111495831</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146765</v>
+        <v>597.8166141688966</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729333</v>
+        <v>380.9792363271534</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>171.3388302398975</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018224</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172993</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449756</v>
+        <v>807.0577537630744</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953629</v>
+        <v>563.5254386134617</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146765</v>
+        <v>523.694875389285</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729333</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7591234339442</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6166,31 +6166,31 @@
         <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1536.101895403972</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1323.468653249752</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>1045.492187519584</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V25" t="n">
-        <v>801.9598723699714</v>
+        <v>841.5019043436298</v>
       </c>
       <c r="W25" t="n">
-        <v>523.6948753892849</v>
+        <v>563.2369073629434</v>
       </c>
       <c r="X25" t="n">
-        <v>306.8574975475418</v>
+        <v>346.3995295212002</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>136.7591234339442</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,16 +6236,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>346.6880607717191</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>188.9040509000862</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>188.9040509000862</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028587</v>
@@ -6388,7 +6388,7 @@
         <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
         <v>822.7849551969363</v>
@@ -6400,34 +6400,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q28" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449755</v>
+        <v>807.057753763075</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953628</v>
+        <v>563.5254386134623</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146763</v>
+        <v>563.5254386134623</v>
       </c>
       <c r="X28" t="n">
-        <v>168.345994172933</v>
+        <v>346.6880607717191</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>346.6880607717191</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,40 +6473,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028587</v>
@@ -6637,7 +6637,7 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
@@ -6652,19 +6652,19 @@
         <v>1184.957149875143</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449756</v>
+        <v>906.9806841449753</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953629</v>
+        <v>663.4483689953627</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146764</v>
+        <v>385.1833720146762</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729332</v>
+        <v>168.3459941729328</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229667</v>
@@ -6841,28 +6841,28 @@
         <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6874,19 +6874,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>880.8106280646857</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,13 +7564,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,16 +7825,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516231</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.269243651622</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>369.0893880493734</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>87.16935584025441</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>76.43196988338514</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>223.6742649934481</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615217</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>349.7653003338567</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>199.6230805871095</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>213.8192266952352</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>82.82564838110135</v>
       </c>
       <c r="D19" t="n">
         <v>137.5748216925009</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.1263883408624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>85.03530345214521</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856057</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>236.0500894189447</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>117.0595581189948</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>137.126388340863</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>44.62322147545542</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
@@ -24619,7 +24619,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808138</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.1263883408627</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>67.15720800698001</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
@@ -24856,7 +24856,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808138</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>137.1263883408629</v>
       </c>
     </row>
     <row r="32">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605539.3888196951</v>
+        <v>605539.388819695</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642828</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="F2" t="n">
         <v>782058.119475418</v>
       </c>
       <c r="G2" t="n">
+        <v>788375.3505184436</v>
+      </c>
+      <c r="H2" t="n">
+        <v>788375.3505184436</v>
+      </c>
+      <c r="I2" t="n">
+        <v>788375.3505184436</v>
+      </c>
+      <c r="J2" t="n">
         <v>788375.3505184435</v>
       </c>
-      <c r="H2" t="n">
-        <v>788375.3505184434</v>
-      </c>
-      <c r="I2" t="n">
-        <v>788375.3505184434</v>
-      </c>
-      <c r="J2" t="n">
-        <v>788375.3505184434</v>
-      </c>
       <c r="K2" t="n">
-        <v>788375.3505184434</v>
+        <v>788375.3505184435</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642845</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642843</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642844</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="G4" t="n">
-        <v>18678.59412427842</v>
+        <v>18678.59412427841</v>
       </c>
       <c r="H4" t="n">
-        <v>18678.59412427842</v>
+        <v>18678.59412427841</v>
       </c>
       <c r="I4" t="n">
-        <v>18678.59412427841</v>
+        <v>18678.5941242784</v>
       </c>
       <c r="J4" t="n">
-        <v>18678.59412427838</v>
+        <v>18678.59412427837</v>
       </c>
       <c r="K4" t="n">
-        <v>18678.59412427841</v>
+        <v>18678.59412427837</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="N4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501787</v>
@@ -26497,19 +26497,19 @@
         <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.145664893731</v>
+        <v>-8560.145664893382</v>
       </c>
       <c r="C6" t="n">
-        <v>581407.733549651</v>
+        <v>581407.7335496509</v>
       </c>
       <c r="D6" t="n">
-        <v>581407.733549651</v>
+        <v>581407.7335496508</v>
       </c>
       <c r="E6" t="n">
-        <v>149865.0874283659</v>
+        <v>149767.6283023937</v>
       </c>
       <c r="F6" t="n">
-        <v>675025.1239052623</v>
+        <v>674927.6647792902</v>
       </c>
       <c r="G6" t="n">
-        <v>667948.7328685782</v>
+        <v>667867.0668202137</v>
       </c>
       <c r="H6" t="n">
-        <v>676781.2539291471</v>
+        <v>676699.5878807828</v>
       </c>
       <c r="I6" t="n">
-        <v>676781.2539291471</v>
+        <v>676699.5878807828</v>
       </c>
       <c r="J6" t="n">
-        <v>500358.0347365541</v>
+        <v>500276.3686881897</v>
       </c>
       <c r="K6" t="n">
-        <v>676781.2539291471</v>
+        <v>676699.5878807827</v>
       </c>
       <c r="L6" t="n">
-        <v>631356.6950777867</v>
+        <v>631356.6950777869</v>
       </c>
       <c r="M6" t="n">
-        <v>551061.1919476622</v>
+        <v>551061.1919476624</v>
       </c>
       <c r="N6" t="n">
-        <v>685862.2071814996</v>
+        <v>685862.2071814993</v>
       </c>
       <c r="O6" t="n">
-        <v>685862.2071814993</v>
+        <v>685862.2071814995</v>
       </c>
       <c r="P6" t="n">
-        <v>685862.2071814992</v>
+        <v>685862.2071814995</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>11.04065132571142</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>234.8534136286752</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.57297887413176</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>128.0571403890127</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753841</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>14.80881508571622</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>253.8337132002121</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>29.68712721493367</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3983626790356</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.946981880942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>51.87038096697651</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498795</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31276,16 +31276,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31297,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35662,13 +35662,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>336.4270607962786</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>702.2839614473862</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36200,19 +36200,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>369.5330580813625</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
         <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>567.6062243483295</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988639</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,16 +37306,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>283.5253848149098</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>472.9319699494724</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112263</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>599.023005289881</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>406.7164955186342</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
